--- a/input/emissions-inventories/Argentina/Argentina Inventory Categories.xlsx
+++ b/input/emissions-inventories/Argentina/Argentina Inventory Categories.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bolt753\Documents\GitHub\CEDS\input\emissions-inventories\Argentina\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="0" windowWidth="23265" windowHeight="13185" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2540" yWindow="0" windowWidth="32540" windowHeight="17700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="translated" sheetId="1" r:id="rId1"/>
     <sheet name="original" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -891,9 +886,6 @@
     <t>Marine international (1A3di_International-shipping)</t>
   </si>
   <si>
-    <t>Domestic navigation (1A3dii_Domestic-naviation [shipping])</t>
-  </si>
-  <si>
     <t>Other type of transportation (1A3eii_Other-transp)</t>
   </si>
   <si>
@@ -1054,6 +1046,9 @@
   </si>
   <si>
     <t xml:space="preserve">Other 1B2avi </t>
+  </si>
+  <si>
+    <t>Domestic navigation (1A3dii_Domestic-navigation [shipping])</t>
   </si>
 </sst>
 </file>
@@ -1736,26 +1731,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L222"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="5.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="26.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="28.625" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.6640625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -1768,7 +1763,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J1" s="14" t="s">
         <v>174</v>
@@ -1780,12 +1775,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="36"/>
@@ -1802,7 +1797,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
@@ -1824,7 +1819,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>272</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J5" s="18" t="s">
         <v>208</v>
@@ -1864,7 +1859,7 @@
       </c>
       <c r="L5" s="18"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="D6" s="19">
@@ -1884,7 +1879,7 @@
       </c>
       <c r="L6" s="18"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="D7" s="19">
@@ -1906,7 +1901,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="D8" s="19">
@@ -1928,7 +1923,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="D9" s="19">
@@ -1950,7 +1945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="D10" s="19">
@@ -1972,7 +1967,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -1989,15 +1984,15 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J12" s="18" t="s">
         <v>48</v>
@@ -2009,7 +2004,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
@@ -2022,7 +2017,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J13" s="30" t="s">
         <v>12</v>
@@ -2034,7 +2029,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2057,7 +2052,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -2078,7 +2073,7 @@
       </c>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -2099,7 +2094,7 @@
       </c>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -2120,7 +2115,7 @@
       </c>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -2141,7 +2136,7 @@
       </c>
       <c r="L18" s="18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -2162,7 +2157,7 @@
       </c>
       <c r="L19" s="18"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -2183,7 +2178,7 @@
       </c>
       <c r="L20" s="18"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -2197,7 +2192,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
@@ -2210,10 +2205,10 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -2225,10 +2220,10 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
@@ -2240,16 +2235,16 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="B25" s="17" t="s">
         <v>216</v>
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="D26" s="19">
         <v>103</v>
       </c>
@@ -2260,7 +2255,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="D27" s="19">
         <v>206</v>
       </c>
@@ -2273,7 +2268,7 @@
       <c r="J27" s="32"/>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="15">
       <c r="B28" s="17" t="s">
         <v>258</v>
       </c>
@@ -2281,7 +2276,7 @@
       <c r="J28" s="31"/>
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="15">
       <c r="D29" s="19">
         <v>301</v>
       </c>
@@ -2294,7 +2289,7 @@
       <c r="J29" s="31"/>
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="15">
       <c r="D30" s="19">
         <v>206</v>
       </c>
@@ -2307,7 +2302,7 @@
       <c r="J30" s="31"/>
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="15">
       <c r="D31" s="19">
         <v>201</v>
       </c>
@@ -2320,7 +2315,7 @@
       <c r="J31" s="31"/>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="15">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
@@ -2335,12 +2330,12 @@
       <c r="J32" s="31"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="15"/>
@@ -2348,12 +2343,12 @@
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="D34" s="19">
@@ -2368,7 +2363,7 @@
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="D35" s="19">
@@ -2383,7 +2378,7 @@
       <c r="J35" s="31"/>
       <c r="K35" s="31"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="D36" s="19">
@@ -2398,7 +2393,7 @@
       <c r="J36" s="31"/>
       <c r="K36" s="31"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="D37" s="19">
@@ -2411,7 +2406,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="D38" s="19">
@@ -2424,7 +2419,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="D39" s="19">
@@ -2437,7 +2432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="D40" s="19">
@@ -2450,12 +2445,12 @@
         <v>204</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="15"/>
@@ -2463,10 +2458,10 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="D42" s="19">
@@ -2479,12 +2474,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="15"/>
@@ -2492,10 +2487,10 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
       <c r="H43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="D44" s="19">
@@ -2508,7 +2503,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="D45" s="19">
@@ -2521,7 +2516,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="D46" s="19">
@@ -2534,7 +2529,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="D47" s="19">
@@ -2547,7 +2542,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="D48" s="19">
@@ -2560,7 +2555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="D49" s="19">
@@ -2573,7 +2568,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="D50" s="19">
@@ -2586,7 +2581,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="D51" s="19">
@@ -2599,7 +2594,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="12" t="s">
         <v>49</v>
       </c>
@@ -2612,10 +2607,10 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="D53" s="19">
@@ -2628,7 +2623,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="D54" s="19">
@@ -2641,7 +2636,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="D55" s="19">
@@ -2654,7 +2649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="D56" s="19">
@@ -2667,7 +2662,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="D57" s="19">
@@ -2680,7 +2675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="D58" s="19">
@@ -2693,7 +2688,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="12" t="s">
         <v>52</v>
       </c>
@@ -2706,10 +2701,10 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="D60" s="19">
@@ -2722,7 +2717,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="D61" s="19">
@@ -2735,7 +2730,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="D62" s="19">
@@ -2748,7 +2743,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="D63" s="19">
@@ -2761,7 +2756,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="D64" s="19">
@@ -2774,7 +2769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8">
       <c r="D65" s="19">
         <v>406</v>
       </c>
@@ -2785,12 +2780,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="15"/>
@@ -2798,16 +2793,16 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="B67" s="17" t="s">
         <v>275</v>
       </c>
       <c r="G67" s="17"/>
       <c r="H67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="D68" s="19">
         <v>301</v>
       </c>
@@ -2818,7 +2813,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8">
       <c r="D69" s="19">
         <v>206</v>
       </c>
@@ -2829,7 +2824,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8">
       <c r="D70" s="19">
         <v>106</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="D71" s="19">
         <v>401</v>
       </c>
@@ -2851,7 +2846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="D72" s="19">
         <v>103</v>
       </c>
@@ -2862,16 +2857,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="B73" s="17" t="s">
         <v>276</v>
       </c>
       <c r="G73" s="17"/>
       <c r="H73" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="D74" s="19">
         <v>301</v>
       </c>
@@ -2882,7 +2877,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8">
       <c r="D75" s="19">
         <v>206</v>
       </c>
@@ -2893,16 +2888,16 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8">
       <c r="B76" s="17" t="s">
         <v>278</v>
       </c>
       <c r="G76" s="17"/>
       <c r="H76" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="D77" s="19">
         <v>301</v>
       </c>
@@ -2913,7 +2908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8">
       <c r="D78" s="19">
         <v>206</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8">
       <c r="D79" s="19">
         <v>207</v>
       </c>
@@ -2935,7 +2930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="D80" s="19">
         <v>401</v>
       </c>
@@ -2946,7 +2941,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8">
       <c r="D81" s="19">
         <v>406</v>
       </c>
@@ -2957,16 +2952,16 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8">
       <c r="B82" s="17" t="s">
         <v>277</v>
       </c>
       <c r="G82" s="17"/>
       <c r="H82" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8">
       <c r="D83" s="19">
         <v>301</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8">
       <c r="D84" s="19">
         <v>206</v>
       </c>
@@ -2988,7 +2983,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8">
       <c r="D85" s="19">
         <v>406</v>
       </c>
@@ -2999,16 +2994,16 @@
         <v>269</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8">
       <c r="B86" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8">
       <c r="D87" s="19">
         <v>301</v>
       </c>
@@ -3019,7 +3014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8">
       <c r="D88" s="19">
         <v>206</v>
       </c>
@@ -3030,7 +3025,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8">
       <c r="D89" s="19">
         <v>207</v>
       </c>
@@ -3041,7 +3036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8">
       <c r="B90" s="21" t="s">
         <v>218</v>
       </c>
@@ -3050,10 +3045,10 @@
       <c r="E90" s="23"/>
       <c r="G90" s="17"/>
       <c r="H90" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="24">
@@ -3067,7 +3062,7 @@
       </c>
       <c r="G91" s="17"/>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8">
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="24">
@@ -3080,7 +3075,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8">
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="24">
@@ -3094,7 +3089,7 @@
       </c>
       <c r="G93" s="17"/>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8">
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="24">
@@ -3108,7 +3103,7 @@
       </c>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8">
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="24">
@@ -3122,7 +3117,7 @@
       </c>
       <c r="G95" s="17"/>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8">
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="24">
@@ -3136,7 +3131,7 @@
       </c>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8">
       <c r="A97" s="8" t="s">
         <v>64</v>
       </c>
@@ -3149,7 +3144,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8">
       <c r="A98" s="12" t="s">
         <v>66</v>
       </c>
@@ -3162,7 +3157,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8">
       <c r="A99" s="27" t="s">
         <v>68</v>
       </c>
@@ -3175,10 +3170,10 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="20"/>
@@ -3193,7 +3188,7 @@
       </c>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8">
       <c r="A101" s="27" t="s">
         <v>70</v>
       </c>
@@ -3206,10 +3201,10 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="20"/>
@@ -3224,7 +3219,7 @@
       </c>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8">
       <c r="A103" s="12" t="s">
         <v>72</v>
       </c>
@@ -3237,10 +3232,10 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
       <c r="H103" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="16"/>
       <c r="B104" s="28" t="s">
         <v>221</v>
@@ -3251,7 +3246,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8">
       <c r="A105" s="16"/>
       <c r="B105" s="28"/>
       <c r="C105" s="20"/>
@@ -3266,7 +3261,7 @@
       </c>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8">
       <c r="A106" s="16"/>
       <c r="B106" s="28"/>
       <c r="C106" s="20"/>
@@ -3281,7 +3276,7 @@
       </c>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8">
       <c r="A107" s="16"/>
       <c r="B107" s="28"/>
       <c r="C107" s="20"/>
@@ -3296,7 +3291,7 @@
       </c>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8">
       <c r="A108" s="16"/>
       <c r="B108" s="28"/>
       <c r="C108" s="20"/>
@@ -3311,7 +3306,7 @@
       </c>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8">
       <c r="A109" s="16"/>
       <c r="B109" s="28"/>
       <c r="C109" s="20"/>
@@ -3326,7 +3321,7 @@
       </c>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8">
       <c r="A110" s="16"/>
       <c r="B110" s="28" t="s">
         <v>222</v>
@@ -3337,7 +3332,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8">
       <c r="A111" s="16"/>
       <c r="B111" s="28"/>
       <c r="C111" s="20"/>
@@ -3352,7 +3347,7 @@
       </c>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8">
       <c r="A112" s="12" t="s">
         <v>78</v>
       </c>
@@ -3365,10 +3360,10 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="D113" s="19">
@@ -3382,7 +3377,7 @@
       </c>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
       <c r="A114" s="12" t="s">
         <v>80</v>
       </c>
@@ -3395,7 +3390,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
       <c r="A115" s="27" t="s">
         <v>82</v>
       </c>
@@ -3408,10 +3403,10 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
       <c r="C116" s="20"/>
@@ -3426,7 +3421,7 @@
       </c>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
       <c r="C117" s="20"/>
@@ -3441,12 +3436,12 @@
       </c>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
       <c r="A118" s="27" t="s">
         <v>84</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="C118" s="20"/>
       <c r="D118" s="29"/>
@@ -3454,10 +3449,10 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
       <c r="C119" s="20"/>
@@ -3472,7 +3467,7 @@
       </c>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
       <c r="C120" s="20"/>
@@ -3487,12 +3482,12 @@
       </c>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
       <c r="A121" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="15"/>
@@ -3500,10 +3495,10 @@
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="16" t="s">
         <v>88</v>
       </c>
@@ -3511,7 +3506,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="D123" s="19">
@@ -3524,7 +3519,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="D124" s="19">
@@ -3537,7 +3532,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="D125" s="19">
@@ -3550,7 +3545,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="16" t="s">
         <v>90</v>
       </c>
@@ -3558,7 +3553,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
       <c r="A127" s="8" t="s">
         <v>92</v>
       </c>
@@ -3571,12 +3566,12 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C128" s="14"/>
       <c r="D128" s="15"/>
@@ -3584,10 +3579,10 @@
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
       <c r="H128" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="D129" s="19">
@@ -3600,7 +3595,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="D130" s="19">
@@ -3613,7 +3608,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="D131" s="19">
@@ -3626,7 +3621,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="D132" s="19">
@@ -3639,7 +3634,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="D133" s="19">
@@ -3652,12 +3647,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C134" s="14"/>
       <c r="D134" s="15"/>
@@ -3665,10 +3660,10 @@
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
       <c r="H134" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="D135" s="19">
@@ -3681,7 +3676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="D136" s="19">
@@ -3694,7 +3689,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="D137" s="19">
@@ -3707,7 +3702,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="D138" s="19">
@@ -3720,7 +3715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="D139" s="19">
@@ -3733,7 +3728,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="D140" s="19">
@@ -3746,12 +3741,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="12" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C141" s="14"/>
       <c r="D141" s="15"/>
@@ -3759,10 +3754,10 @@
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
       <c r="H141" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="D142" s="19">
         <v>208</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="D143" s="19">
         <v>209</v>
       </c>
@@ -3784,7 +3779,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
       <c r="D144" s="19">
         <v>206</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="D145" s="19">
         <v>207</v>
       </c>
@@ -3806,12 +3801,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8">
       <c r="A146" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
@@ -3819,10 +3814,10 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="12" t="s">
         <v>103</v>
       </c>
@@ -3835,10 +3830,10 @@
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
       <c r="H147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="12" t="s">
         <v>105</v>
       </c>
@@ -3851,15 +3846,15 @@
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
       <c r="H148" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B149" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C149" s="6"/>
       <c r="D149" s="7"/>
@@ -3867,12 +3862,12 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
@@ -3880,7 +3875,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" s="12" t="s">
         <v>111</v>
       </c>
@@ -3893,10 +3888,10 @@
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
       <c r="H151" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="27" t="s">
         <v>113</v>
       </c>
@@ -3909,7 +3904,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" s="20"/>
       <c r="B153" s="28" t="s">
         <v>231</v>
@@ -3920,7 +3915,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" s="20"/>
       <c r="B154" s="28"/>
       <c r="C154" s="20"/>
@@ -3932,7 +3927,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8">
       <c r="A155" s="20"/>
       <c r="B155" s="28" t="s">
         <v>232</v>
@@ -3942,7 +3937,7 @@
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8">
       <c r="A156" s="20"/>
       <c r="B156" s="28"/>
       <c r="C156" s="20"/>
@@ -3954,7 +3949,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8">
       <c r="A157" s="27" t="s">
         <v>119</v>
       </c>
@@ -3966,7 +3961,7 @@
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" s="20"/>
       <c r="B158" s="28" t="s">
         <v>231</v>
@@ -3976,7 +3971,7 @@
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" s="20"/>
       <c r="B159" s="28"/>
       <c r="C159" s="20"/>
@@ -3988,7 +3983,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" s="20"/>
       <c r="B160" s="28" t="s">
         <v>232</v>
@@ -3998,7 +3993,7 @@
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
       <c r="A161" s="20"/>
       <c r="B161" s="28"/>
       <c r="C161" s="20"/>
@@ -4010,7 +4005,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
       <c r="A162" s="12" t="s">
         <v>121</v>
       </c>
@@ -4023,15 +4018,15 @@
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
       <c r="H162" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C163" s="14"/>
       <c r="D163" s="15"/>
@@ -4039,7 +4034,7 @@
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="8" t="s">
         <v>124</v>
       </c>
@@ -4052,7 +4047,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
       <c r="A165" s="12" t="s">
         <v>126</v>
       </c>
@@ -4065,7 +4060,7 @@
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
       <c r="A166" s="27" t="s">
         <v>128</v>
       </c>
@@ -4078,7 +4073,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
       <c r="A167" s="27"/>
       <c r="B167" s="28"/>
       <c r="C167" s="20"/>
@@ -4089,7 +4084,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="27"/>
       <c r="B168" s="28"/>
       <c r="C168" s="20"/>
@@ -4100,7 +4095,7 @@
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
       <c r="A169" s="27"/>
       <c r="B169" s="28"/>
       <c r="C169" s="20"/>
@@ -4111,12 +4106,12 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="27" t="s">
         <v>133</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C170" s="20"/>
       <c r="D170" s="29"/>
@@ -4124,10 +4119,10 @@
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
       <c r="H170" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="27"/>
       <c r="B171" s="28"/>
       <c r="C171" s="20"/>
@@ -4140,7 +4135,7 @@
       </c>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="27" t="s">
         <v>136</v>
       </c>
@@ -4153,7 +4148,7 @@
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
       <c r="C173" s="20"/>
@@ -4166,7 +4161,7 @@
       </c>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
       <c r="C174" s="20"/>
@@ -4179,7 +4174,7 @@
       </c>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
       <c r="A175" s="27" t="s">
         <v>139</v>
       </c>
@@ -4192,10 +4187,10 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="27"/>
       <c r="B176" s="28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C176" s="20"/>
       <c r="D176" s="29"/>
@@ -4203,10 +4198,10 @@
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="H176" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="20"/>
@@ -4219,7 +4214,7 @@
       </c>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="27"/>
       <c r="B178" s="28" t="s">
         <v>238</v>
@@ -4230,7 +4225,7 @@
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
       <c r="C179" s="20"/>
@@ -4243,12 +4238,12 @@
       </c>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
       <c r="A180" s="27" t="s">
         <v>144</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C180" s="20"/>
       <c r="D180" s="29"/>
@@ -4256,10 +4251,10 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
       <c r="H180" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
       <c r="C181" s="20"/>
@@ -4272,7 +4267,7 @@
       </c>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
       <c r="C182" s="20"/>
@@ -4285,12 +4280,12 @@
       </c>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
       <c r="A183" s="27" t="s">
         <v>148</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C183" s="20"/>
       <c r="D183" s="29"/>
@@ -4298,10 +4293,10 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
       <c r="H183" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="12" t="s">
         <v>149</v>
       </c>
@@ -4314,7 +4309,7 @@
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
       <c r="A185" s="27" t="s">
         <v>151</v>
       </c>
@@ -4327,10 +4322,10 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
       <c r="H185" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="27"/>
       <c r="B186" s="28" t="s">
         <v>185</v>
@@ -4341,7 +4336,7 @@
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="20"/>
@@ -4354,7 +4349,7 @@
       </c>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
       <c r="A188" s="27"/>
       <c r="B188" s="28" t="s">
         <v>241</v>
@@ -4365,7 +4360,7 @@
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="20"/>
@@ -4378,7 +4373,7 @@
       </c>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
       <c r="A190" s="27" t="s">
         <v>154</v>
       </c>
@@ -4391,10 +4386,10 @@
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
       <c r="H190" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="27"/>
       <c r="B191" s="28" t="s">
         <v>243</v>
@@ -4405,7 +4400,7 @@
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="20"/>
@@ -4418,7 +4413,7 @@
       </c>
       <c r="G192" s="20"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="27"/>
       <c r="B193" s="28" t="s">
         <v>244</v>
@@ -4428,7 +4423,7 @@
       <c r="E193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="20"/>
@@ -4441,7 +4436,7 @@
       </c>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="27" t="s">
         <v>160</v>
       </c>
@@ -4449,12 +4444,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
       <c r="B196" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="27"/>
       <c r="E197" s="20" t="s">
         <v>184</v>
@@ -4463,13 +4458,13 @@
         <v>213</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
       <c r="A198" s="27"/>
       <c r="B198" s="17" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
       <c r="A199" s="27"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
@@ -4482,12 +4477,12 @@
       </c>
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C200" s="14"/>
       <c r="D200" s="15"/>
@@ -4495,10 +4490,10 @@
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
       <c r="H200" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="27" t="s">
         <v>166</v>
       </c>
@@ -4506,13 +4501,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
       <c r="A202" s="27"/>
       <c r="B202" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
       <c r="A203" s="27"/>
       <c r="E203" s="20" t="s">
         <v>185</v>
@@ -4521,13 +4516,13 @@
         <v>205</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="27"/>
       <c r="B204" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
       <c r="A205" s="27"/>
       <c r="E205" s="20" t="s">
         <v>185</v>
@@ -4536,7 +4531,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
       <c r="A206" s="27" t="s">
         <v>169</v>
       </c>
@@ -4544,13 +4539,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
       <c r="A207" s="27"/>
       <c r="B207" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="27"/>
       <c r="B208" s="21"/>
       <c r="C208" s="17" t="s">
@@ -4558,7 +4553,7 @@
       </c>
       <c r="E208" s="17"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="27"/>
       <c r="B209" s="21"/>
       <c r="E209" s="20" t="s">
@@ -4568,14 +4563,14 @@
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="27"/>
       <c r="B210" s="21"/>
       <c r="C210" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="27"/>
       <c r="B211" s="21"/>
       <c r="E211" s="20" t="s">
@@ -4585,20 +4580,20 @@
         <v>213</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="27"/>
       <c r="B212" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="27"/>
       <c r="B213" s="21"/>
       <c r="C213" s="17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="27"/>
       <c r="B214" s="21"/>
       <c r="E214" s="20" t="s">
@@ -4608,14 +4603,14 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="27"/>
       <c r="B215" s="21"/>
       <c r="C215" s="17" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="27"/>
       <c r="E216" s="20" t="s">
         <v>185</v>
@@ -4624,7 +4619,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="27" t="s">
         <v>171</v>
       </c>
@@ -4632,12 +4627,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="G221" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="G222" s="27" t="s">
         <v>82</v>
       </c>
@@ -4661,25 +4656,25 @@
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.6640625" style="18" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36" style="18" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="25.375" style="18" customWidth="1"/>
-    <col min="8" max="8" width="32.625" customWidth="1"/>
-    <col min="11" max="11" width="25.875" customWidth="1"/>
-    <col min="12" max="12" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.83203125" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -4696,7 +4691,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4715,12 +4710,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -4734,7 +4729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -4753,7 +4748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="16" t="s">
         <v>5</v>
       </c>
@@ -4764,7 +4759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="D6" s="19">
@@ -4780,7 +4775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="16"/>
       <c r="B7" s="17"/>
       <c r="D7" s="19">
@@ -4799,7 +4794,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="D8" s="19">
@@ -4818,7 +4813,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15">
       <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="D9" s="19">
@@ -4837,7 +4832,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="D10" s="19">
@@ -4856,7 +4851,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="16" t="s">
         <v>13</v>
       </c>
@@ -4870,7 +4865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -4884,7 +4879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
@@ -4903,7 +4898,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -4923,7 +4918,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" s="16"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -4940,7 +4935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -4957,7 +4952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="16"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -4974,7 +4969,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -4991,7 +4986,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="16"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -5008,7 +5003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -5025,7 +5020,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="16"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -5039,7 +5034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="12" t="s">
         <v>24</v>
       </c>
@@ -5052,7 +5047,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="16" t="s">
         <v>26</v>
       </c>
@@ -5064,7 +5059,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="16" t="s">
         <v>28</v>
       </c>
@@ -5076,13 +5071,13 @@
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="D26" s="19">
         <v>103</v>
       </c>
@@ -5093,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="D27" s="19">
         <v>206</v>
       </c>
@@ -5105,14 +5100,14 @@
       </c>
       <c r="K27" s="32"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15">
       <c r="B28" s="17" t="s">
         <v>31</v>
       </c>
       <c r="G28" s="17"/>
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15">
       <c r="D29" s="19">
         <v>301</v>
       </c>
@@ -5124,7 +5119,7 @@
       </c>
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15">
       <c r="D30" s="19">
         <v>206</v>
       </c>
@@ -5136,7 +5131,7 @@
       </c>
       <c r="K30" s="31"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15">
       <c r="D31" s="19">
         <v>201</v>
       </c>
@@ -5148,7 +5143,7 @@
       </c>
       <c r="K31" s="31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
@@ -5162,7 +5157,7 @@
       <c r="G32" s="10"/>
       <c r="K32" s="31"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15">
       <c r="A33" s="12" t="s">
         <v>36</v>
       </c>
@@ -5176,7 +5171,7 @@
       <c r="G33" s="14"/>
       <c r="K33" s="31"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="D34" s="19">
@@ -5190,7 +5185,7 @@
       </c>
       <c r="K34" s="31"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15">
       <c r="A35" s="16"/>
       <c r="B35" s="17"/>
       <c r="D35" s="19">
@@ -5204,7 +5199,7 @@
       </c>
       <c r="K35" s="31"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="D36" s="19">
@@ -5218,7 +5213,7 @@
       </c>
       <c r="K36" s="31"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="16"/>
       <c r="B37" s="17"/>
       <c r="D37" s="19">
@@ -5231,7 +5226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="D38" s="19">
@@ -5244,7 +5239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="D39" s="19">
@@ -5257,7 +5252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="D40" s="19">
@@ -5270,7 +5265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
@@ -5283,7 +5278,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="D42" s="19">
@@ -5296,7 +5291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="12" t="s">
         <v>44</v>
       </c>
@@ -5309,7 +5304,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="14"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="D44" s="19">
@@ -5322,7 +5317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="16"/>
       <c r="B45" s="17"/>
       <c r="D45" s="19">
@@ -5335,7 +5330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="D46" s="19">
@@ -5348,7 +5343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="16"/>
       <c r="B47" s="17"/>
       <c r="D47" s="19">
@@ -5361,7 +5356,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="D48" s="19">
@@ -5374,7 +5369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="D49" s="19">
@@ -5387,7 +5382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="D50" s="19">
@@ -5400,7 +5395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="16"/>
       <c r="B51" s="17"/>
       <c r="D51" s="19">
@@ -5413,7 +5408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="12" t="s">
         <v>49</v>
       </c>
@@ -5426,7 +5421,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="16"/>
       <c r="B53" s="17"/>
       <c r="D53" s="19">
@@ -5439,7 +5434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="D54" s="19">
@@ -5452,7 +5447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="16"/>
       <c r="B55" s="17"/>
       <c r="D55" s="19">
@@ -5465,7 +5460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="D56" s="19">
@@ -5478,7 +5473,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="16"/>
       <c r="B57" s="17"/>
       <c r="D57" s="19">
@@ -5491,7 +5486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="D58" s="19">
@@ -5504,7 +5499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="12" t="s">
         <v>52</v>
       </c>
@@ -5517,7 +5512,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="D60" s="19">
@@ -5530,7 +5525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="16"/>
       <c r="B61" s="17"/>
       <c r="D61" s="19">
@@ -5543,7 +5538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="D62" s="19">
@@ -5556,7 +5551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="16"/>
       <c r="B63" s="17"/>
       <c r="D63" s="19">
@@ -5569,7 +5564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="D64" s="19">
@@ -5582,7 +5577,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="D65" s="19">
         <v>406</v>
       </c>
@@ -5593,7 +5588,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="12" t="s">
         <v>54</v>
       </c>
@@ -5606,13 +5601,13 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="B67" s="17" t="s">
         <v>56</v>
       </c>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="D68" s="19">
         <v>301</v>
       </c>
@@ -5623,7 +5618,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="D69" s="19">
         <v>206</v>
       </c>
@@ -5634,7 +5629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="D70" s="19">
         <v>106</v>
       </c>
@@ -5645,7 +5640,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="D71" s="19">
         <v>401</v>
       </c>
@@ -5656,7 +5651,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="D72" s="19">
         <v>103</v>
       </c>
@@ -5667,13 +5662,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="B73" s="17" t="s">
         <v>58</v>
       </c>
       <c r="G73" s="17"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="D74" s="19">
         <v>301</v>
       </c>
@@ -5684,7 +5679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="D75" s="19">
         <v>206</v>
       </c>
@@ -5695,13 +5690,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="B76" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G76" s="17"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="D77" s="19">
         <v>301</v>
       </c>
@@ -5712,7 +5707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="D78" s="19">
         <v>206</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="D79" s="19">
         <v>207</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="D80" s="19">
         <v>401</v>
       </c>
@@ -5745,7 +5740,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" customFormat="1">
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="19">
@@ -5759,7 +5754,7 @@
       </c>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" customFormat="1">
       <c r="B82" s="17" t="s">
         <v>61</v>
       </c>
@@ -5769,7 +5764,7 @@
       <c r="F82" s="18"/>
       <c r="G82" s="17"/>
     </row>
-    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" customFormat="1">
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="19">
@@ -5783,7 +5778,7 @@
       </c>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" customFormat="1">
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
       <c r="D84" s="19">
@@ -5797,7 +5792,7 @@
       </c>
       <c r="G84" s="18"/>
     </row>
-    <row r="85" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" customFormat="1">
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
       <c r="D85" s="19">
@@ -5811,7 +5806,7 @@
       </c>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" customFormat="1">
       <c r="B86" s="17" t="s">
         <v>62</v>
       </c>
@@ -5821,7 +5816,7 @@
       <c r="F86" s="18"/>
       <c r="G86" s="17"/>
     </row>
-    <row r="87" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" customFormat="1">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="19">
@@ -5835,7 +5830,7 @@
       </c>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" customFormat="1">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="19">
@@ -5849,7 +5844,7 @@
       </c>
       <c r="G88" s="18"/>
     </row>
-    <row r="89" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" customFormat="1">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="19">
@@ -5863,7 +5858,7 @@
       </c>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" customFormat="1">
       <c r="B90" s="21" t="s">
         <v>63</v>
       </c>
@@ -5873,7 +5868,7 @@
       <c r="F90" s="18"/>
       <c r="G90" s="17"/>
     </row>
-    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" customFormat="1">
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="24">
@@ -5887,7 +5882,7 @@
       </c>
       <c r="G91" s="17"/>
     </row>
-    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" customFormat="1">
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
       <c r="D92" s="24">
@@ -5901,7 +5896,7 @@
       </c>
       <c r="G92" s="18"/>
     </row>
-    <row r="93" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" customFormat="1">
       <c r="B93" s="25"/>
       <c r="C93" s="25"/>
       <c r="D93" s="24">
@@ -5915,7 +5910,7 @@
       </c>
       <c r="G93" s="17"/>
     </row>
-    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" customFormat="1">
       <c r="B94" s="25"/>
       <c r="C94" s="25"/>
       <c r="D94" s="24">
@@ -5929,7 +5924,7 @@
       </c>
       <c r="G94" s="17"/>
     </row>
-    <row r="95" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" customFormat="1">
       <c r="B95" s="25"/>
       <c r="C95" s="25"/>
       <c r="D95" s="24">
@@ -5943,7 +5938,7 @@
       </c>
       <c r="G95" s="17"/>
     </row>
-    <row r="96" spans="2:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" customFormat="1">
       <c r="B96" s="25"/>
       <c r="C96" s="25"/>
       <c r="D96" s="24">
@@ -5957,7 +5952,7 @@
       </c>
       <c r="G96" s="17"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="8" t="s">
         <v>64</v>
       </c>
@@ -5970,7 +5965,7 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="12" t="s">
         <v>66</v>
       </c>
@@ -5983,7 +5978,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="27" t="s">
         <v>68</v>
       </c>
@@ -5996,7 +5991,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="27"/>
       <c r="B100" s="28"/>
       <c r="C100" s="20"/>
@@ -6011,7 +6006,7 @@
       </c>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="27" t="s">
         <v>70</v>
       </c>
@@ -6024,7 +6019,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="27"/>
       <c r="B102" s="28"/>
       <c r="C102" s="20"/>
@@ -6039,7 +6034,7 @@
       </c>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="12" t="s">
         <v>72</v>
       </c>
@@ -6052,7 +6047,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="14"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="16"/>
       <c r="B104" s="28" t="s">
         <v>74</v>
@@ -6063,7 +6058,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="16"/>
       <c r="B105" s="28"/>
       <c r="C105" s="20"/>
@@ -6078,7 +6073,7 @@
       </c>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="16"/>
       <c r="B106" s="28"/>
       <c r="C106" s="20"/>
@@ -6093,7 +6088,7 @@
       </c>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="16"/>
       <c r="B107" s="28"/>
       <c r="C107" s="20"/>
@@ -6108,7 +6103,7 @@
       </c>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="16"/>
       <c r="B108" s="28"/>
       <c r="C108" s="20"/>
@@ -6123,7 +6118,7 @@
       </c>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="16"/>
       <c r="B109" s="28"/>
       <c r="C109" s="20"/>
@@ -6138,7 +6133,7 @@
       </c>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="16"/>
       <c r="B110" s="28" t="s">
         <v>77</v>
@@ -6149,7 +6144,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="16"/>
       <c r="B111" s="28"/>
       <c r="C111" s="20"/>
@@ -6164,7 +6159,7 @@
       </c>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="12" t="s">
         <v>78</v>
       </c>
@@ -6177,7 +6172,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="D113" s="19">
@@ -6191,7 +6186,7 @@
       </c>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="12" t="s">
         <v>80</v>
       </c>
@@ -6204,7 +6199,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="27" t="s">
         <v>82</v>
       </c>
@@ -6217,7 +6212,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="27"/>
       <c r="B116" s="28"/>
       <c r="C116" s="20"/>
@@ -6232,7 +6227,7 @@
       </c>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="27"/>
       <c r="B117" s="28"/>
       <c r="C117" s="20"/>
@@ -6247,7 +6242,7 @@
       </c>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="27" t="s">
         <v>84</v>
       </c>
@@ -6260,7 +6255,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="27"/>
       <c r="B119" s="28"/>
       <c r="C119" s="20"/>
@@ -6275,7 +6270,7 @@
       </c>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="27"/>
       <c r="B120" s="28"/>
       <c r="C120" s="20"/>
@@ -6290,7 +6285,7 @@
       </c>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="12" t="s">
         <v>86</v>
       </c>
@@ -6303,7 +6298,7 @@
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="16" t="s">
         <v>88</v>
       </c>
@@ -6311,7 +6306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="D123" s="19">
@@ -6324,7 +6319,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="D124" s="19">
@@ -6337,7 +6332,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="D125" s="19">
@@ -6350,7 +6345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="16" t="s">
         <v>90</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
         <v>92</v>
       </c>
@@ -6371,7 +6366,7 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="12" t="s">
         <v>94</v>
       </c>
@@ -6384,7 +6379,7 @@
       <c r="F128" s="14"/>
       <c r="G128" s="14"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="D129" s="19">
@@ -6397,7 +6392,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="D130" s="19">
@@ -6410,7 +6405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="D131" s="19">
@@ -6423,7 +6418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="D132" s="19">
@@ -6436,7 +6431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="D133" s="19">
@@ -6449,7 +6444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="12" t="s">
         <v>96</v>
       </c>
@@ -6462,7 +6457,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="D135" s="19">
@@ -6475,7 +6470,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="D136" s="19">
@@ -6488,7 +6483,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="D137" s="19">
@@ -6501,7 +6496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="D138" s="19">
@@ -6514,7 +6509,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="D139" s="19">
@@ -6527,7 +6522,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="D140" s="19">
@@ -6540,7 +6535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="12" t="s">
         <v>99</v>
       </c>
@@ -6553,7 +6548,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="D142" s="19">
         <v>208</v>
       </c>
@@ -6564,7 +6559,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="D143" s="19">
         <v>209</v>
       </c>
@@ -6575,7 +6570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="D144" s="19">
         <v>206</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="D145" s="19">
         <v>207</v>
       </c>
@@ -6597,7 +6592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="8" t="s">
         <v>101</v>
       </c>
@@ -6610,7 +6605,7 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="12" t="s">
         <v>103</v>
       </c>
@@ -6623,7 +6618,7 @@
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="12" t="s">
         <v>105</v>
       </c>
@@ -6636,7 +6631,7 @@
       <c r="F148" s="14"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
         <v>107</v>
       </c>
@@ -6649,7 +6644,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="8" t="s">
         <v>109</v>
       </c>
@@ -6662,7 +6657,7 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="12" t="s">
         <v>111</v>
       </c>
@@ -6675,7 +6670,7 @@
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="27" t="s">
         <v>113</v>
       </c>
@@ -6688,7 +6683,7 @@
       <c r="F152" s="20"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="20"/>
       <c r="B153" s="28" t="s">
         <v>115</v>
@@ -6699,7 +6694,7 @@
       <c r="F153" s="20"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="20"/>
       <c r="B154" s="28"/>
       <c r="C154" s="20"/>
@@ -6711,7 +6706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="20"/>
       <c r="B155" s="28" t="s">
         <v>118</v>
@@ -6721,7 +6716,7 @@
       <c r="E155" s="20"/>
       <c r="F155" s="20"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="20"/>
       <c r="B156" s="28"/>
       <c r="C156" s="20"/>
@@ -6733,7 +6728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="27" t="s">
         <v>119</v>
       </c>
@@ -6745,7 +6740,7 @@
       <c r="E157" s="20"/>
       <c r="F157" s="20"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="20"/>
       <c r="B158" s="28" t="s">
         <v>115</v>
@@ -6755,7 +6750,7 @@
       <c r="E158" s="20"/>
       <c r="F158" s="20"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="20"/>
       <c r="B159" s="28"/>
       <c r="C159" s="20"/>
@@ -6767,7 +6762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="20"/>
       <c r="B160" s="28" t="s">
         <v>118</v>
@@ -6777,7 +6772,7 @@
       <c r="E160" s="20"/>
       <c r="F160" s="20"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="20"/>
       <c r="B161" s="28"/>
       <c r="C161" s="20"/>
@@ -6789,7 +6784,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="12" t="s">
         <v>121</v>
       </c>
@@ -6802,7 +6797,7 @@
       <c r="F162" s="14"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="12" t="s">
         <v>123</v>
       </c>
@@ -6815,7 +6810,7 @@
       <c r="F163" s="14"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="8" t="s">
         <v>124</v>
       </c>
@@ -6828,7 +6823,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="12" t="s">
         <v>126</v>
       </c>
@@ -6841,7 +6836,7 @@
       <c r="F165" s="14"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="27" t="s">
         <v>128</v>
       </c>
@@ -6854,7 +6849,7 @@
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="27"/>
       <c r="B167" s="28"/>
       <c r="C167" s="20"/>
@@ -6865,7 +6860,7 @@
       <c r="F167" s="20"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="27"/>
       <c r="B168" s="28"/>
       <c r="C168" s="20"/>
@@ -6876,7 +6871,7 @@
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="27"/>
       <c r="B169" s="28"/>
       <c r="C169" s="20"/>
@@ -6887,7 +6882,7 @@
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="27" t="s">
         <v>133</v>
       </c>
@@ -6900,7 +6895,7 @@
       <c r="F170" s="20"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="27"/>
       <c r="B171" s="28"/>
       <c r="C171" s="20"/>
@@ -6913,7 +6908,7 @@
       </c>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="27" t="s">
         <v>136</v>
       </c>
@@ -6926,7 +6921,7 @@
       <c r="F172" s="20"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="27"/>
       <c r="B173" s="28"/>
       <c r="C173" s="20"/>
@@ -6939,7 +6934,7 @@
       </c>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="27"/>
       <c r="B174" s="28"/>
       <c r="C174" s="20"/>
@@ -6952,7 +6947,7 @@
       </c>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="27" t="s">
         <v>139</v>
       </c>
@@ -6965,7 +6960,7 @@
       <c r="F175" s="20"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="27"/>
       <c r="B176" s="28" t="s">
         <v>141</v>
@@ -6976,7 +6971,7 @@
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="27"/>
       <c r="B177" s="28"/>
       <c r="C177" s="20"/>
@@ -6989,7 +6984,7 @@
       </c>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="27"/>
       <c r="B178" s="28" t="s">
         <v>143</v>
@@ -7000,7 +6995,7 @@
       <c r="F178" s="20"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="27"/>
       <c r="B179" s="28"/>
       <c r="C179" s="20"/>
@@ -7013,7 +7008,7 @@
       </c>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="27" t="s">
         <v>144</v>
       </c>
@@ -7026,7 +7021,7 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="27"/>
       <c r="B181" s="28"/>
       <c r="C181" s="20"/>
@@ -7039,7 +7034,7 @@
       </c>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="27"/>
       <c r="B182" s="28"/>
       <c r="C182" s="20"/>
@@ -7052,7 +7047,7 @@
       </c>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="27" t="s">
         <v>148</v>
       </c>
@@ -7065,7 +7060,7 @@
       <c r="F183" s="20"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="12" t="s">
         <v>149</v>
       </c>
@@ -7078,7 +7073,7 @@
       <c r="F184" s="14"/>
       <c r="G184" s="14"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="27" t="s">
         <v>151</v>
       </c>
@@ -7091,7 +7086,7 @@
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="27"/>
       <c r="B186" s="28" t="s">
         <v>116</v>
@@ -7102,7 +7097,7 @@
       <c r="F186" s="20"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="27"/>
       <c r="B187" s="28"/>
       <c r="C187" s="20"/>
@@ -7115,7 +7110,7 @@
       </c>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="27"/>
       <c r="B188" s="28" t="s">
         <v>153</v>
@@ -7126,7 +7121,7 @@
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="27"/>
       <c r="B189" s="28"/>
       <c r="C189" s="20"/>
@@ -7139,7 +7134,7 @@
       </c>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="27" t="s">
         <v>154</v>
       </c>
@@ -7152,7 +7147,7 @@
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="27"/>
       <c r="B191" s="28" t="s">
         <v>156</v>
@@ -7163,7 +7158,7 @@
       <c r="F191" s="20"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="27"/>
       <c r="B192" s="28"/>
       <c r="C192" s="20"/>
@@ -7176,7 +7171,7 @@
       </c>
       <c r="G192" s="20"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="27"/>
       <c r="B193" s="28" t="s">
         <v>158</v>
@@ -7186,7 +7181,7 @@
       <c r="E193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="27"/>
       <c r="B194" s="28"/>
       <c r="C194" s="20"/>
@@ -7199,7 +7194,7 @@
       </c>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="27" t="s">
         <v>160</v>
       </c>
@@ -7207,12 +7202,12 @@
         <v>161</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="B196" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="27"/>
       <c r="E197" s="20" t="s">
         <v>7</v>
@@ -7221,13 +7216,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="27"/>
       <c r="B198" s="17" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="27"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
@@ -7240,7 +7235,7 @@
       </c>
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="12" t="s">
         <v>164</v>
       </c>
@@ -7253,7 +7248,7 @@
       <c r="F200" s="14"/>
       <c r="G200" s="14"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="27" t="s">
         <v>166</v>
       </c>
@@ -7261,13 +7256,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="27"/>
       <c r="B202" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="27"/>
       <c r="E203" s="20" t="s">
         <v>116</v>
@@ -7276,13 +7271,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="27"/>
       <c r="B204" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="27"/>
       <c r="E205" s="20" t="s">
         <v>116</v>
@@ -7291,7 +7286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="27" t="s">
         <v>169</v>
       </c>
@@ -7299,13 +7294,13 @@
         <v>170</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="27"/>
       <c r="B207" s="21" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="27"/>
       <c r="B208" s="21"/>
       <c r="C208" s="17" t="s">
@@ -7313,7 +7308,7 @@
       </c>
       <c r="E208" s="17"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="27"/>
       <c r="B209" s="21"/>
       <c r="E209" s="20" t="s">
@@ -7323,14 +7318,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="27"/>
       <c r="B210" s="21"/>
       <c r="C210" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="27"/>
       <c r="B211" s="21"/>
       <c r="E211" s="20" t="s">
@@ -7340,20 +7335,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="27"/>
       <c r="B212" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="27"/>
       <c r="B213" s="21"/>
       <c r="C213" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="27"/>
       <c r="B214" s="21"/>
       <c r="E214" s="20" t="s">
@@ -7363,14 +7358,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="27"/>
       <c r="B215" s="21"/>
       <c r="C215" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="27"/>
       <c r="E216" s="20" t="s">
         <v>116</v>
@@ -7379,7 +7374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="27" t="s">
         <v>171</v>
       </c>
@@ -7387,12 +7382,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="G221" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="G222" s="27" t="s">
         <v>82</v>
       </c>
